--- a/Project_OLI_2/gantt.xlsx
+++ b/Project_OLI_2/gantt.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa237770\Documents\Finances\Project_OLI_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BDC685-FD7B-4AF9-92CA-C96A387E59C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF7790-22CB-4ADF-B183-88E78A0413E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{07CC8A63-0D24-4575-8648-F1650D5860C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -495,288 +495,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="194">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -1021,994 +740,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA48F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="0" tint="-5.0965910824915313E-2"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2358,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43801CFB-125B-4C6A-9B24-9BB400003FD0}">
   <dimension ref="B1:AR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA22" sqref="BA22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT10" sqref="AT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,7 +1103,8 @@
     <col min="8" max="8" width="1.5703125" customWidth="1"/>
     <col min="9" max="9" width="5.140625" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="44" width="2.85546875" customWidth="1"/>
+    <col min="11" max="43" width="3.85546875" customWidth="1"/>
+    <col min="44" max="44" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3376,7 +2108,9 @@
       <c r="AG14" s="29"/>
       <c r="AH14" s="29"/>
       <c r="AI14" s="29"/>
-      <c r="AJ14" s="29"/>
+      <c r="AJ14" s="29">
+        <v>60</v>
+      </c>
       <c r="AK14" s="29"/>
       <c r="AL14" s="29"/>
       <c r="AM14" s="29"/>
@@ -3630,7 +2364,7 @@
       </c>
       <c r="AJ18" s="30">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AK18" s="30">
         <f t="shared" si="6"/>
@@ -5019,15 +3753,15 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="K5:AQ5">
-    <cfRule type="cellIs" dxfId="69" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="55" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:AQ4">
-    <cfRule type="cellIs" dxfId="68" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5040,20 +3774,20 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="53">
+    <cfRule type="expression" dxfId="31" priority="53">
       <formula>IF(#REF! &gt; 5,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:AQ24">
-    <cfRule type="cellIs" dxfId="65" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:AQ23">
-    <cfRule type="cellIs" dxfId="64" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5066,92 +3800,92 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="39">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>IF(#REF! &gt; 5,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:AQ16">
-    <cfRule type="expression" dxfId="61" priority="19">
+    <cfRule type="expression" dxfId="26" priority="19">
       <formula>K$4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>K$5&gt;5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>NOT(AND($D7&lt;=K$6, $E7&gt;=K$6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
       <formula>$G7="R"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$G7="G"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>$G7="B"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="25">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>$G7="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="26">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>$G7="O"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>$G7="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="42" stopIfTrue="1">
       <formula>K$4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="43" stopIfTrue="1">
       <formula>K$5&gt;5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44">
+    <cfRule type="expression" dxfId="15" priority="44">
       <formula>NOT(AND($D7&lt;=K$6, $E7&gt;=K$6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="45" stopIfTrue="1">
       <formula>$G7="R"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="46">
+    <cfRule type="expression" dxfId="13" priority="46">
       <formula>$G7="G"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="47">
+    <cfRule type="expression" dxfId="12" priority="47">
       <formula>$G7="B"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="48">
+    <cfRule type="expression" dxfId="11" priority="48">
       <formula>$G7="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="50">
+    <cfRule type="expression" dxfId="10" priority="50">
       <formula>$G7="O"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="51">
+    <cfRule type="expression" dxfId="9" priority="51">
       <formula>$G7="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:AQ35">
-    <cfRule type="expression" dxfId="52" priority="83">
+    <cfRule type="expression" dxfId="8" priority="83">
       <formula>K$4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="84">
+    <cfRule type="expression" dxfId="7" priority="84">
       <formula>K$24&gt;5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="85">
+    <cfRule type="expression" dxfId="6" priority="85">
       <formula>NOT(AND($D26&lt;=K$6, $E26&gt;=K$6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="86" stopIfTrue="1">
       <formula>$G26="R"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="87">
+    <cfRule type="expression" dxfId="4" priority="87">
       <formula>$G26="G"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="88">
+    <cfRule type="expression" dxfId="3" priority="88">
       <formula>$G26="B"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="89">
+    <cfRule type="expression" dxfId="2" priority="89">
       <formula>$G26="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="90">
+    <cfRule type="expression" dxfId="1" priority="90">
       <formula>$G26="O"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="91">
+    <cfRule type="expression" dxfId="0" priority="91">
       <formula>$G26="X"</formula>
     </cfRule>
   </conditionalFormatting>
